--- a/public/doc/출장비정산신청서.xlsx
+++ b/public/doc/출장비정산신청서.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>출장목적</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -202,6 +202,14 @@
   </si>
   <si>
     <t>해외수당</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표이사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -844,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,6 +961,102 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,118 +1075,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="10" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,128 +1189,41 @@
     <xf numFmtId="41" fontId="10" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1514,7 +1525,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:J42"/>
+      <selection activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2157,176 +2168,176 @@
   <sheetData>
     <row r="1" spans="1:10" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>3</v>
+      <c r="I2" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="50"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="50"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="4" t="s">
         <v>2</v>
       </c>
@@ -2341,30 +2352,30 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="54"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="55"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="60"/>
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -2399,8 +2410,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="56"/>
+      <c r="B17" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="13"/>
@@ -2413,8 +2424,8 @@
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="14"/>
@@ -2425,8 +2436,8 @@
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="13"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
@@ -2437,8 +2448,8 @@
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
       <c r="E20" s="14"/>
@@ -2449,8 +2460,8 @@
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52" t="s">
+      <c r="A21" s="56"/>
+      <c r="B21" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="14"/>
@@ -2463,8 +2474,8 @@
       <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
       <c r="E22" s="14"/>
@@ -2475,8 +2486,8 @@
       <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="51"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="14"/>
@@ -2487,8 +2498,8 @@
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="14"/>
@@ -2499,8 +2510,8 @@
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="14"/>
@@ -2511,8 +2522,8 @@
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
       <c r="E26" s="14"/>
@@ -2523,8 +2534,8 @@
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="14"/>
@@ -2535,8 +2546,8 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
       <c r="E28" s="14"/>
@@ -2547,8 +2558,8 @@
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="51"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
       <c r="E29" s="14"/>
@@ -2559,8 +2570,8 @@
       <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
       <c r="E30" s="14"/>
@@ -2571,8 +2582,8 @@
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
       <c r="E31" s="14"/>
@@ -2583,8 +2594,8 @@
       <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="51"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
       <c r="E32" s="14"/>
@@ -2595,10 +2606,10 @@
       <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="45" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="14"/>
@@ -2611,8 +2622,8 @@
       <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="70"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
       <c r="E34" s="14"/>
@@ -2623,7 +2634,7 @@
       <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="70"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="4" t="s">
         <v>39</v>
       </c>
@@ -2637,8 +2648,8 @@
       <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="70"/>
-      <c r="B36" s="53"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
       <c r="E36" s="14"/>
@@ -2649,8 +2660,8 @@
       <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="70"/>
-      <c r="B37" s="53"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
       <c r="E37" s="14"/>
@@ -2661,7 +2672,7 @@
       <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="70"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="4" t="s">
         <v>39</v>
       </c>
@@ -2675,115 +2686,113 @@
       <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="73"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="49"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A40" s="70"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="76"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="52"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="70"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="76"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="52"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="70"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="79"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="55"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="65"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="68"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="46" spans="1:10" ht="15" customHeight="1">
-      <c r="A46" s="69"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A4:F4 B5:D5 F5:G5 I5:J5 B6:J11 A17:J44" name="범위1"/>
   </protectedRanges>
   <mergeCells count="42">
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:J42"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
@@ -2800,18 +2809,20 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A2:F3"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:J42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3779527559055118" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -2829,7 +2840,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="M2" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3729,95 +3740,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105"/>
       <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="6" t="s">
-        <v>3</v>
+      <c r="K1" s="112"/>
+      <c r="L1" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="96"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="96"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="109"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="103" t="s">
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="H4" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="100" t="s">
+      <c r="I4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="102"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
       <c r="M4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A5" s="99"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
@@ -3827,18 +3838,18 @@
       <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="100" t="s">
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="102"/>
-      <c r="K5" s="100" t="s">
+      <c r="J5" s="117"/>
+      <c r="K5" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="102"/>
+      <c r="L5" s="117"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="20.25" customHeight="1">
@@ -3850,10 +3861,10 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="111"/>
       <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1">
@@ -3865,10 +3876,10 @@
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="81"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="111"/>
       <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1">
@@ -3880,10 +3891,10 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="81"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="111"/>
       <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1">
@@ -3895,10 +3906,10 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="81"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="111"/>
       <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1">
@@ -3910,10 +3921,10 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="111"/>
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1">
@@ -3925,10 +3936,10 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="81"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="111"/>
       <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13" ht="20.25" customHeight="1">
@@ -3940,10 +3951,10 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="81"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="111"/>
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1">
@@ -3955,10 +3966,10 @@
       <c r="F13" s="19"/>
       <c r="G13" s="23"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="81"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="111"/>
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1">
@@ -3970,10 +3981,10 @@
       <c r="F14" s="19"/>
       <c r="G14" s="23"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="81"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1">
@@ -3985,10 +3996,10 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="81"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="111"/>
       <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4000,10 +4011,10 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="99"/>
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4015,10 +4026,10 @@
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="83"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="99"/>
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4030,10 +4041,10 @@
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4045,10 +4056,10 @@
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="83"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
       <c r="M19" s="30"/>
     </row>
     <row r="20" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4060,10 +4071,10 @@
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="83"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="99"/>
       <c r="M20" s="30"/>
     </row>
     <row r="21" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4075,10 +4086,10 @@
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="83"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="99"/>
       <c r="M21" s="30"/>
     </row>
     <row r="22" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4090,10 +4101,10 @@
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="83"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="99"/>
       <c r="M22" s="30"/>
     </row>
     <row r="23" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4105,10 +4116,10 @@
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="83"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="99"/>
       <c r="M23" s="30"/>
     </row>
     <row r="24" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4120,10 +4131,10 @@
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="83"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="99"/>
       <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4135,10 +4146,10 @@
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="83"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="99"/>
       <c r="M25" s="30"/>
     </row>
     <row r="26" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4152,8 +4163,8 @@
       <c r="H26" s="29"/>
       <c r="I26" s="33"/>
       <c r="J26" s="34"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="105"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="102"/>
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4167,8 +4178,8 @@
       <c r="H27" s="29"/>
       <c r="I27" s="33"/>
       <c r="J27" s="34"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="105"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="102"/>
       <c r="M27" s="30"/>
     </row>
     <row r="28" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4182,8 +4193,8 @@
       <c r="H28" s="29"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="105"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="102"/>
       <c r="M28" s="30"/>
     </row>
     <row r="29" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4197,8 +4208,8 @@
       <c r="H29" s="29"/>
       <c r="I29" s="33"/>
       <c r="J29" s="34"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="105"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="102"/>
       <c r="M29" s="30"/>
     </row>
     <row r="30" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4210,10 +4221,10 @@
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="83"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="99"/>
       <c r="M30" s="30"/>
     </row>
     <row r="31" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4225,10 +4236,10 @@
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="83"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="99"/>
       <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4240,82 +4251,77 @@
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="83"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="99"/>
       <c r="M32" s="30"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A33" s="106" t="s">
+      <c r="A33" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="108"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="81"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A34" s="107"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="109"/>
+      <c r="A34" s="101"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="82"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A6:M34 A3:H3" name="범위1"/>
   </protectedRanges>
   <mergeCells count="77">
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="L2:L3"/>
@@ -4332,34 +4338,39 @@
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.4960629921259843" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>

--- a/public/doc/출장비정산신청서.xlsx
+++ b/public/doc/출장비정산신청서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="1080" windowWidth="18315" windowHeight="11655" activeTab="1"/>
+    <workbookView xWindow="7620" yWindow="1080" windowWidth="18315" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="신청서" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>출장목적</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -32,15 +32,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>부사장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>팀장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -212,6 +204,10 @@
     <t>대표이사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>대표이사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -852,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,6 +960,90 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -988,12 +1068,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1021,80 +1095,89 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="41" fontId="10" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1140,90 +1223,6 @@
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1524,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2168,251 +2167,251 @@
   <sheetData>
     <row r="1" spans="1:10" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="A2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="80"/>
+      <c r="A4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
+        <v>29</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
+      <c r="B9" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
+        <v>31</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
+      <c r="A13" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="I13" s="37" t="s">
+        <v>41</v>
+      </c>
       <c r="J13" s="2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="59"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="60"/>
+      <c r="A15" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="57"/>
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="53"/>
+      <c r="B17" s="54" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="45" t="s">
-        <v>37</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
@@ -2424,8 +2423,8 @@
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="14"/>
@@ -2436,8 +2435,8 @@
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="13"/>
       <c r="D19" s="15"/>
       <c r="E19" s="13"/>
@@ -2448,8 +2447,8 @@
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
       <c r="E20" s="14"/>
@@ -2460,9 +2459,9 @@
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="45" t="s">
-        <v>37</v>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54" t="s">
+        <v>35</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -2474,8 +2473,8 @@
       <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="56"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="14"/>
       <c r="D22" s="15"/>
       <c r="E22" s="14"/>
@@ -2486,8 +2485,8 @@
       <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
       <c r="E23" s="14"/>
@@ -2498,8 +2497,8 @@
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
       <c r="E24" s="14"/>
@@ -2510,8 +2509,8 @@
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="14"/>
       <c r="D25" s="15"/>
       <c r="E25" s="14"/>
@@ -2522,8 +2521,8 @@
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="56"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="14"/>
       <c r="D26" s="15"/>
       <c r="E26" s="14"/>
@@ -2534,8 +2533,8 @@
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="14"/>
@@ -2546,8 +2545,8 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
       <c r="E28" s="14"/>
@@ -2558,8 +2557,8 @@
       <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="14"/>
       <c r="D29" s="15"/>
       <c r="E29" s="14"/>
@@ -2570,8 +2569,8 @@
       <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="14"/>
       <c r="D30" s="15"/>
       <c r="E30" s="14"/>
@@ -2582,8 +2581,8 @@
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="14"/>
       <c r="D31" s="15"/>
       <c r="E31" s="14"/>
@@ -2594,8 +2593,8 @@
       <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
       <c r="E32" s="14"/>
@@ -2606,11 +2605,11 @@
       <c r="J32" s="16"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>37</v>
+      <c r="A33" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>35</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
@@ -2622,8 +2621,8 @@
       <c r="J33" s="16"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
       <c r="E34" s="14"/>
@@ -2634,9 +2633,9 @@
       <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="15"/>
@@ -2648,8 +2647,8 @@
       <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="44"/>
-      <c r="B36" s="46"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
       <c r="E36" s="14"/>
@@ -2660,8 +2659,8 @@
       <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="44"/>
-      <c r="B37" s="46"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
       <c r="E37" s="14"/>
@@ -2672,9 +2671,9 @@
       <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="44"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
@@ -2686,113 +2685,115 @@
       <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A39" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="49"/>
+      <c r="A39" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="75"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A40" s="44"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="52"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="78"/>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="44"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="52"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="78"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="44"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="55"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="81"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A43" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
+      <c r="A43" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="67"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A44" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="42"/>
+      <c r="A44" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="70"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="46" spans="1:10" ht="15" customHeight="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A4:F4 B5:D5 F5:G5 I5:J5 B6:J11 A17:J44" name="범위1"/>
   </protectedRanges>
   <mergeCells count="42">
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A2:F3"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:J42"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
@@ -2809,20 +2810,18 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:J42"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.3779527559055118" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -2839,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
@@ -3740,116 +3739,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A1" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="105"/>
+      <c r="A1" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
       <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="112" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="112"/>
+      <c r="J1" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="99"/>
       <c r="L1" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="109"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="109"/>
+      <c r="A3" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="98"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1">
+      <c r="A5" s="101"/>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="118" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="118" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="117"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="104"/>
+      <c r="K5" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="104"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="20.25" customHeight="1">
@@ -3861,10 +3860,10 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="111"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="83"/>
       <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1">
@@ -3876,10 +3875,10 @@
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="111"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="83"/>
       <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1">
@@ -3891,10 +3890,10 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="111"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="83"/>
       <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1">
@@ -3906,10 +3905,10 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="111"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="83"/>
       <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" customHeight="1">
@@ -3921,10 +3920,10 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="111"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="83"/>
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:13" ht="20.25" customHeight="1">
@@ -3936,10 +3935,10 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="111"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
       <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13" ht="20.25" customHeight="1">
@@ -3951,10 +3950,10 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="111"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:13" ht="20.25" customHeight="1">
@@ -3966,10 +3965,10 @@
       <c r="F13" s="19"/>
       <c r="G13" s="23"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="111"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1">
@@ -3981,10 +3980,10 @@
       <c r="F14" s="19"/>
       <c r="G14" s="23"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="111"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="83"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1">
@@ -3996,10 +3995,10 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="111"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
       <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4011,10 +4010,10 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="99"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="85"/>
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4026,10 +4025,10 @@
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="99"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
       <c r="M17" s="30"/>
     </row>
     <row r="18" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4041,10 +4040,10 @@
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="99"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="85"/>
       <c r="M18" s="30"/>
     </row>
     <row r="19" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4056,10 +4055,10 @@
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
       <c r="M19" s="30"/>
     </row>
     <row r="20" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4071,10 +4070,10 @@
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="99"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85"/>
       <c r="M20" s="30"/>
     </row>
     <row r="21" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4086,10 +4085,10 @@
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="99"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="30"/>
     </row>
     <row r="22" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4101,10 +4100,10 @@
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="99"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="30"/>
     </row>
     <row r="23" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4116,10 +4115,10 @@
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="99"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="85"/>
       <c r="M23" s="30"/>
     </row>
     <row r="24" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4131,10 +4130,10 @@
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="99"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="85"/>
       <c r="M24" s="30"/>
     </row>
     <row r="25" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4146,10 +4145,10 @@
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="99"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="85"/>
       <c r="M25" s="30"/>
     </row>
     <row r="26" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4163,8 +4162,8 @@
       <c r="H26" s="29"/>
       <c r="I26" s="33"/>
       <c r="J26" s="34"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="102"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="107"/>
       <c r="M26" s="30"/>
     </row>
     <row r="27" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4178,8 +4177,8 @@
       <c r="H27" s="29"/>
       <c r="I27" s="33"/>
       <c r="J27" s="34"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="102"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="107"/>
       <c r="M27" s="30"/>
     </row>
     <row r="28" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4193,8 +4192,8 @@
       <c r="H28" s="29"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="102"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="107"/>
       <c r="M28" s="30"/>
     </row>
     <row r="29" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4208,8 +4207,8 @@
       <c r="H29" s="29"/>
       <c r="I29" s="33"/>
       <c r="J29" s="34"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="102"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="107"/>
       <c r="M29" s="30"/>
     </row>
     <row r="30" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4221,10 +4220,10 @@
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="99"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="85"/>
       <c r="M30" s="30"/>
     </row>
     <row r="31" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4236,10 +4235,10 @@
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="99"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="85"/>
       <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13" s="31" customFormat="1" ht="20.25" customHeight="1">
@@ -4251,49 +4250,110 @@
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="99"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="85"/>
       <c r="M32" s="30"/>
     </row>
     <row r="33" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A33" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="81"/>
+      <c r="A33" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="110"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A34" s="101"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="82"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="111"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A6:M34 A3:H3" name="범위1"/>
   </protectedRanges>
   <mergeCells count="77">
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="K33:L34"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K23:L23"/>
@@ -4310,67 +4370,6 @@
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="K33:L34"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.4960629921259843" bottom="0.19685039370078741" header="0.39370078740157483" footer="0.19685039370078741"/>
